--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -524,17 +524,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -547,12 +547,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -589,16 +589,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -644,21 +644,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -667,12 +667,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -699,26 +699,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -759,40 +759,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,12 +842,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -889,20 +889,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -954,15 +954,15 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -999,26 +999,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1129,30 +1129,30 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1179,26 +1179,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1299,26 +1299,26 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,20 +1369,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1479,30 +1479,30 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1549,25 +1549,25 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1669,16 +1669,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42.0 minutes</t>
+          <t>48.0 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -524,35 +524,35 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -579,35 +579,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -639,40 +639,40 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -722,17 +722,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -764,17 +764,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -792,7 +792,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -819,30 +819,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -879,26 +879,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -907,12 +907,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -939,30 +939,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1179,22 +1179,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1207,12 +1207,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1304,35 +1304,35 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1419,22 +1419,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1502,17 +1502,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1544,35 +1544,35 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1604,25 +1604,25 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Appointments" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Appointments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,22 +519,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -579,22 +579,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -602,7 +602,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -662,7 +662,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -699,17 +699,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -898,21 +898,21 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -939,26 +939,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -999,40 +999,40 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1069,16 +1069,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1189,16 +1189,16 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1249,16 +1249,16 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1267,12 +1267,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1419,30 +1419,30 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1479,26 +1479,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1599,40 +1599,40 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1664,25 +1664,25 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>48.0 minutes</t>
+          <t>39.0 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -519,26 +519,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -602,7 +602,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -639,30 +639,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -704,21 +704,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -778,21 +778,21 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -824,17 +824,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -879,22 +879,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -954,15 +954,15 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1014,15 +1014,15 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1064,25 +1064,25 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1124,17 +1124,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1179,26 +1179,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1239,17 +1239,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1258,21 +1258,21 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1299,30 +1299,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1359,26 +1359,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1429,16 +1429,16 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1484,17 +1484,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1549,20 +1549,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1604,35 +1604,35 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1659,30 +1659,30 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39.0 minutes</t>
+          <t>49.5 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -519,22 +519,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -699,26 +699,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -769,30 +769,30 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,12 +842,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -902,17 +902,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -962,7 +962,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1059,26 +1059,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1119,22 +1119,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1258,21 +1258,21 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1309,20 +1309,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1382,17 +1382,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1498,11 +1498,11 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1539,30 +1539,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1599,26 +1599,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1659,22 +1659,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>49.5 minutes</t>
+          <t>51.0 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -524,35 +524,35 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -602,17 +602,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -639,26 +639,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -699,40 +699,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -759,30 +759,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -824,17 +824,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -884,12 +884,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -898,21 +898,21 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -944,17 +944,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -999,17 +999,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1059,26 +1059,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1124,12 +1124,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1138,16 +1138,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1189,25 +1189,25 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1239,30 +1239,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1299,26 +1299,26 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1327,12 +1327,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1378,11 +1378,11 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1669,16 +1669,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>51.0 minutes</t>
+          <t>42.0 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -524,35 +524,35 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -589,30 +589,30 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -639,30 +639,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -704,21 +704,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,12 +727,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -769,16 +769,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -819,22 +819,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -889,30 +889,30 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -939,22 +939,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -962,7 +962,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1179,22 +1179,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1244,21 +1244,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1267,12 +1267,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1419,22 +1419,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1479,35 +1479,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1549,16 +1549,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1567,12 +1567,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1609,20 +1609,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1669,20 +1669,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42.0 minutes</t>
+          <t>46.5 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -524,17 +524,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -542,17 +542,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -639,40 +639,40 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -714,25 +714,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -774,15 +774,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -819,26 +819,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -879,30 +879,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -949,12 +949,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -962,7 +962,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1059,26 +1059,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1129,20 +1129,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1179,22 +1179,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1202,17 +1202,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1239,30 +1239,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1309,25 +1309,25 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,35 +1424,35 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1544,35 +1544,35 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1599,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1618,11 +1618,11 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1659,30 +1659,30 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46.5 minutes</t>
+          <t>40.5 minutes</t>
         </is>
       </c>
     </row>

--- a/exports/sample_export.xlsx
+++ b/exports/sample_export.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,21 +538,21 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -594,25 +594,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -639,22 +639,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -662,17 +662,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -699,35 +699,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -769,16 +769,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -884,25 +884,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BlueCross</t>
         </is>
       </c>
     </row>
@@ -944,35 +944,35 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -999,26 +999,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1129,12 +1129,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1184,21 +1184,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1239,30 +1239,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dr. Sarah Johnson</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1299,30 +1299,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Michael Chen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>UnitedHealth</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1419,26 +1419,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Suburban Office</t>
+          <t>Main Clinic</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
     </row>
@@ -1479,22 +1479,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1539,22 +1539,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Main Clinic</t>
+          <t>Downtown Branch</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BlueCross</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Emily Rodriguez</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1622,17 +1622,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
@@ -1659,22 +1659,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Sarah Johnson</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Downtown Branch</t>
+          <t>Suburban Office</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>40.5 minutes</t>
+          <t>39.0 minutes</t>
         </is>
       </c>
     </row>
